--- a/Descision--Maker.xlsx
+++ b/Descision--Maker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\excelProjects\Desicion-maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC890C5A-8C59-4411-8C57-761AFEDF1696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AEAA7-7DCA-4EE8-8EF7-31793FCE458F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="0" windowWidth="15150" windowHeight="10980" xr2:uid="{6AF29B69-FEC1-4D34-9140-608340BFEB4E}"/>
+    <workbookView xWindow="4320" yWindow="2175" windowWidth="15150" windowHeight="10980" xr2:uid="{6AF29B69-FEC1-4D34-9140-608340BFEB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Career Descisions</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Enjoyment</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -85,12 +88,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,13 +144,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -421,143 +477,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7BD034-E7EF-40D1-A726-723E334695EC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A4:F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <f>C$4*B5</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <f>E$4*D5</f>
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="3">
+        <f>G$4*F5</f>
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>5</v>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <f>I$4*H5</f>
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <f>K$4*J5</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <f>C5+E5+G5+I5+K5</f>
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:E9" si="0">C$4*B6</f>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6" si="1">G$4*F6</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="I6" s="4">
+        <f t="shared" ref="I6" si="2">I$4*H6</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="5">
         <v>1</v>
       </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6" si="3">K$4*J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6:L9" si="4">C6+E6+G6+I6+K6</f>
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7" si="5">G$4*F7</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I7" si="6">I$4*H7</f>
+        <v>9</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ref="K7" si="7">K$4*J7</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="G8" s="3">
+        <f t="shared" ref="G8" si="8">G$4*F8</f>
+        <v>16</v>
+      </c>
+      <c r="H8" s="4">
         <v>4</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="I8" s="4">
+        <f t="shared" ref="I8" si="9">I$4*H8</f>
+        <v>12</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" ref="K8" si="10">K$4*J8</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="G9" s="3">
+        <f t="shared" ref="G9" si="11">G$4*F9</f>
+        <v>8</v>
+      </c>
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>5</v>
+      <c r="I9" s="4">
+        <f t="shared" ref="I9" si="12">I$4*H9</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9" si="13">K$4*J9</f>
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L5:L9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>57</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>